--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +744,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,8 +993,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,19 +1005,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,19 +1051,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1071,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,28 +1135,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,28 +1167,31 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,8 +1263,11 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1220,19 +1275,19 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,8 +1455,11 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,19 +1467,19 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,8 +1519,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1452,19 +1531,19 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1551,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,25 +1618,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,28 +1680,31 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1662,8 +1761,8 @@
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1677,28 +1776,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1715,14 +1820,14 @@
         <v>174700</v>
       </c>
       <c r="E47" s="3">
+        <v>174700</v>
+      </c>
+      <c r="F47" s="3">
         <v>173800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>173300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1840,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1865,14 +1985,14 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,28 +2032,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E54" s="3">
         <v>175300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>174000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,28 +2156,31 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2051,28 +2188,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,22 +2252,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,8 +2380,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2240,13 +2398,13 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2554,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2682,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E76" s="3">
         <v>175100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>174200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>173800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,42 +2746,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2600,19 +2795,19 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3021,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,20 +3163,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>173300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,8 +751,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +990,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,8 +1023,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,22 +1035,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,22 +1085,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,8 +1108,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,8 +1178,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1147,22 +1190,22 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1213,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,19 +1228,19 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1243,22 +1295,22 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1318,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1353,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,22 +1505,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,31 +1528,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1563,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1598,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1633,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1628,19 +1715,19 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,31 +1773,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,13 +1843,16 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1764,8 +1863,8 @@
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1779,31 +1878,34 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1913,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>174700</v>
+        <v>174800</v>
       </c>
       <c r="E47" s="3">
         <v>174700</v>
       </c>
       <c r="F47" s="3">
+        <v>174700</v>
+      </c>
+      <c r="G47" s="3">
         <v>173800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>173300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1948,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1988,14 +2108,14 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,8 +2158,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2044,22 +2170,22 @@
         <v>175200</v>
       </c>
       <c r="E54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="F54" s="3">
         <v>175300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>174400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2104,16 +2235,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,8 +2293,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2168,22 +2305,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2191,31 +2328,34 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,13 +2538,16 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2401,13 +2559,13 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,31 +2728,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>500</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,31 +2868,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E76" s="3">
         <v>175000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>175100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>174200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>173800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +2938,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3013,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3238,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3178,11 +3408,11 @@
         <v>400</v>
       </c>
       <c r="F94" s="3">
+        <v>400</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3351,15 +3597,15 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>173300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,65 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +757,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,34 +1016,35 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1052,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,25 +1064,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1061,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,25 +1118,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1144,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1220,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,25 +1232,25 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1216,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1334,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1295,25 +1346,25 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1321,34 +1372,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1356,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,25 +1574,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,34 +1600,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1566,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,34 +1676,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1636,48 +1714,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,31 +1791,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1741,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,34 +1865,37 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1855,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -1866,8 +1964,8 @@
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1881,34 +1979,37 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -1916,29 +2017,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E47" s="3">
         <v>174800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>174700</v>
       </c>
       <c r="F47" s="3">
         <v>174700</v>
       </c>
       <c r="G47" s="3">
+        <v>174700</v>
+      </c>
+      <c r="H47" s="3">
         <v>173800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>173300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,8 +2055,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2093,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2111,14 +2230,14 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,34 +2283,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175200</v>
+        <v>175100</v>
       </c>
       <c r="E54" s="3">
         <v>175200</v>
       </c>
       <c r="F54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="G54" s="3">
         <v>175300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>174000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2196,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,28 +2355,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2261,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,34 +2429,37 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2331,8 +2467,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2340,25 +2479,25 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2695,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2550,7 +2707,7 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -2562,13 +2719,13 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2576,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,34 +2901,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,34 +3053,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E76" s="3">
         <v>174900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>175000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>175100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>174200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>173800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,74 +3129,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3016,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3454,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3250,25 +3466,25 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,26 +3622,29 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>400</v>
       </c>
       <c r="G94" s="3">
+        <v>400</v>
+      </c>
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3600,15 +3845,15 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>173300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3621,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +768,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +812,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +856,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +878,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,46 +1069,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,34 +1127,40 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1175,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,37 +1186,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
       <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1259,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,46 +1303,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,34 +1365,40 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1435,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1699,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,75 +1714,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1831,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,37 +1964,39 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +2004,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,46 +2048,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2136,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1967,11 +2165,11 @@
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1982,8 +2180,14 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1991,64 +2195,70 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E47" s="3">
         <v>174600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>174600</v>
+      </c>
+      <c r="G47" s="3">
         <v>174800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>174700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>174700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>173800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>173300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,8 +2268,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2096,8 +2312,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2356,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,46 +2444,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2532,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E54" s="3">
         <v>175100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>175100</v>
+      </c>
+      <c r="G54" s="3">
         <v>175200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>175200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>175300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>174400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>174000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,34 +2616,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2394,8 +2656,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,46 +2700,58 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2479,37 +2759,43 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,34 +2832,40 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2876,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,22 +3008,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -2722,22 +3038,28 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,46 +3246,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>100</v>
+      </c>
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,46 +3422,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>174800</v>
+        <v>145700</v>
       </c>
       <c r="E76" s="3">
+        <v>171900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>171000</v>
+      </c>
+      <c r="G76" s="3">
         <v>174900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>175000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>175100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>174200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>173800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3510,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3625,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3267,8 +3665,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3885,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3951,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3549,8 +3991,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,32 +4079,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
-        <v>400</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +4123,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4317,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3848,18 +4340,18 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>173300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4361,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4405,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,31 +1110,31 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1115,8 +1142,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,31 +1157,31 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,34 +1220,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,43 +1349,46 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1396,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,43 +1490,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1485,43 +1537,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,34 +1784,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,43 +1819,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,43 +1913,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1881,57 +1960,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,40 +2052,41 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2068,29 +2161,29 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2171,8 +2270,8 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2186,43 +2285,46 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2230,38 +2332,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E47" s="3">
         <v>148300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>174600</v>
       </c>
       <c r="F47" s="3">
         <v>174600</v>
       </c>
       <c r="G47" s="3">
+        <v>174600</v>
+      </c>
+      <c r="H47" s="3">
         <v>174800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>174700</v>
       </c>
       <c r="I47" s="3">
         <v>174700</v>
       </c>
       <c r="J47" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K47" s="3">
         <v>173800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>173300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2476,17 +2596,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,43 +2661,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E54" s="3">
         <v>148900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>175100</v>
       </c>
       <c r="F54" s="3">
         <v>175100</v>
       </c>
       <c r="G54" s="3">
-        <v>175200</v>
+        <v>175100</v>
       </c>
       <c r="H54" s="3">
         <v>175200</v>
       </c>
       <c r="I54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="J54" s="3">
         <v>175300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,37 +2748,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,43 +2840,46 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
+      <c r="D59" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2750,43 +2887,46 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,37 +2981,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,25 +3169,28 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3044,13 +3202,13 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,43 +3423,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,43 +3611,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E76" s="3">
         <v>145700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>171900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>174900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>175000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>175100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>174200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>173800</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,92 +3705,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,16 +4105,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3909,25 +4126,25 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,35 +4312,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>26300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,13 +4566,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>1200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -4346,15 +4592,15 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>173300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,13 +1123,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1113,31 +1139,31 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1171,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,31 +1189,31 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1192,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,37 +1253,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1258,22 +1291,25 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,46 +1391,49 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,22 +1468,22 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1540,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,37 +1853,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1822,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1963,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,43 +2138,44 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2100,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2164,29 +2256,29 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2336,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2273,8 +2371,8 @@
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2288,46 +2386,49 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2335,41 +2436,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E47" s="3">
         <v>149500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>148300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>174600</v>
       </c>
       <c r="G47" s="3">
         <v>174600</v>
       </c>
       <c r="H47" s="3">
+        <v>174600</v>
+      </c>
+      <c r="I47" s="3">
         <v>174800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>174700</v>
       </c>
       <c r="J47" s="3">
         <v>174700</v>
       </c>
       <c r="K47" s="3">
+        <v>174700</v>
+      </c>
+      <c r="L47" s="3">
         <v>173800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2486,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2536,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2599,17 +2718,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,46 +2786,49 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E54" s="3">
         <v>150000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>148900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>175100</v>
       </c>
       <c r="G54" s="3">
         <v>175100</v>
       </c>
       <c r="H54" s="3">
-        <v>175200</v>
+        <v>175100</v>
       </c>
       <c r="I54" s="3">
         <v>175200</v>
       </c>
       <c r="J54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="K54" s="3">
         <v>175300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,40 +2878,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2796,31 +2926,34 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2843,46 +2976,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+        <v>31600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -2890,46 +3026,49 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E60" s="3">
         <v>24700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -2937,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,40 +3126,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,28 +3326,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E66" s="3">
         <v>26400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3205,13 +3362,13 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3596,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,46 +3796,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E76" s="3">
         <v>123600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>174900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>175000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>175100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>174200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3807,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,10 +4333,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4129,25 +4345,25 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,38 +4541,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,17 +4811,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,15 +4840,15 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>173300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4911,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +4923,45 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>THCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,88 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +795,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +851,14 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +907,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +933,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +985,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1041,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1097,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,8 +1176,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1133,49 +1187,55 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,49 +1243,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1310,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,49 +1321,55 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,20 +1377,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1418,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,66 +1474,78 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1471,31 +1563,37 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1978,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,99 +1993,111 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1200</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,49 +2311,51 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2189,8 +2363,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,8 +2419,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2259,38 +2445,44 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2531,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2363,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2374,11 +2572,11 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2389,97 +2587,109 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>95200</v>
+      </c>
+      <c r="F47" s="3">
         <v>127400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>149500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>148300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>174600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>174600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>174800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>174700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>174700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>173800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>173300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,8 +2699,14 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2539,8 +2755,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2811,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2923,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2721,26 +2961,32 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +3035,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95400</v>
+      </c>
+      <c r="F54" s="3">
         <v>127700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>150000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>148900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>175100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>175100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>175200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>175200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>175300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>174400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>174000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,46 +3139,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2929,23 +3191,29 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,11 +3223,11 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2979,108 +3247,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F59" s="3">
         <v>31600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F60" s="3">
         <v>34400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,46 +3415,52 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,34 +3639,40 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F66" s="3">
         <v>35400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>26400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3365,22 +3681,28 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3941,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +4165,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F76" s="3">
         <v>92200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>123600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>145700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>171900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>171000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>174900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>175000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>175100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>174200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>173800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4420,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4074,8 +4472,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4834,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4444,8 +4886,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,44 +4998,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F94" s="3">
         <v>22100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>26300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +5054,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,23 +5300,29 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4843,18 +5335,18 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>173300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5356,14 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,25 +5412,31 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
@@ -4941,27 +5445,33 @@
         <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
